--- a/DAA-work/destinations.xlsx
+++ b/DAA-work/destinations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,114 +466,38 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12.84287714959075</v>
+        <v>12.83732663834683</v>
       </c>
       <c r="D2" t="n">
-        <v>80.15000468278257</v>
+        <v>80.15517711639406</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KS</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12.82745157500496</v>
+      </c>
+      <c r="D3" t="n">
+        <v>80.16521930694581</v>
+      </c>
+      <c r="E3" t="n">
         <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12.82363003680918</v>
-      </c>
-      <c r="D3" t="n">
-        <v>80.16996994552379</v>
-      </c>
-      <c r="E3" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12.83571980156072</v>
-      </c>
-      <c r="D4" t="n">
-        <v>80.15607199999999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>KS</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12.82998619513855</v>
-      </c>
-      <c r="D5" t="n">
-        <v>80.15607199999999</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>GT</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12.83015363224705</v>
-      </c>
-      <c r="D6" t="n">
-        <v>80.1622084494134</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ks</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>12.83306178283728</v>
-      </c>
-      <c r="D7" t="n">
-        <v>80.15892528691016</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DAA-work/destinations.xlsx
+++ b/DAA-work/destinations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,10 +480,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -498,6 +496,27 @@
       </c>
       <c r="E3" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2356</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Destination1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12.8293764059038</v>
+      </c>
+      <c r="D4" t="n">
+        <v>80.12243270874025</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
